--- a/data/trans_orig/PCS12_SP_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R2-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>109431</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>92192</v>
+        <v>92251</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>130265</v>
+        <v>129259</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.221491930773228</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1865990854678505</v>
+        <v>0.1867193294461591</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2636594881071003</v>
+        <v>0.2616246346762239</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>134</v>
@@ -765,19 +765,19 @@
         <v>131705</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>113051</v>
+        <v>113943</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>150788</v>
+        <v>153291</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2817281731124386</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2418270094579753</v>
+        <v>0.2437343630556125</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3225493403653654</v>
+        <v>0.3279018637996564</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>243</v>
@@ -786,19 +786,19 @@
         <v>241136</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>214227</v>
+        <v>215404</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>266891</v>
+        <v>268144</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2507776669004252</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2227926567009949</v>
+        <v>0.2240165112976638</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2775624582633117</v>
+        <v>0.2788658074009958</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>384633</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>363799</v>
+        <v>364805</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>401872</v>
+        <v>401813</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.778508069226772</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7363405118928996</v>
+        <v>0.7383753653237761</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8134009145321495</v>
+        <v>0.8132806705538409</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>355</v>
@@ -836,19 +836,19 @@
         <v>335784</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>316701</v>
+        <v>314198</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>354438</v>
+        <v>353546</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7182718268875614</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6774506596346345</v>
+        <v>0.6720981362003433</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7581729905420247</v>
+        <v>0.7562656369443874</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>745</v>
@@ -857,19 +857,19 @@
         <v>720417</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>694662</v>
+        <v>693409</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>747326</v>
+        <v>746149</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7492223330995748</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7224375417366883</v>
+        <v>0.7211341925990042</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7772073432990051</v>
+        <v>0.7759834887023361</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>175092</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>153310</v>
+        <v>153236</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>202381</v>
+        <v>201442</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2380617482720616</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2084462180459947</v>
+        <v>0.2083459010142324</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2751653217873746</v>
+        <v>0.2738885446786683</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>229</v>
@@ -982,19 +982,19 @@
         <v>246631</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>225464</v>
+        <v>222733</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>273039</v>
+        <v>270541</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3942976595757285</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3604581626999523</v>
+        <v>0.3560906844851375</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4365168644330135</v>
+        <v>0.4325242663229307</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>394</v>
@@ -1003,19 +1003,19 @@
         <v>421722</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>385483</v>
+        <v>386710</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>457682</v>
+        <v>459023</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3098661997797563</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.283238554636233</v>
+        <v>0.2841405150038455</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.336288310572229</v>
+        <v>0.3372736114456438</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>560397</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>533108</v>
+        <v>534047</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>582179</v>
+        <v>582253</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7619382517279384</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7248346782126257</v>
+        <v>0.7261114553213325</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7915537819540057</v>
+        <v>0.7916540989857677</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>362</v>
@@ -1053,19 +1053,19 @@
         <v>378863</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>352455</v>
+        <v>354953</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>400030</v>
+        <v>402761</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6057023404242715</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5634831355669863</v>
+        <v>0.5674757336770693</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6395418373000477</v>
+        <v>0.6439093155148624</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>900</v>
@@ -1074,19 +1074,19 @@
         <v>939260</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>903300</v>
+        <v>901959</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>975499</v>
+        <v>974272</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6901338002202437</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6637116894277711</v>
+        <v>0.6627263885543576</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7167614453637671</v>
+        <v>0.7158594849961549</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>217674</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>195354</v>
+        <v>192157</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>244193</v>
+        <v>244108</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3408256991072183</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.30587728353748</v>
+        <v>0.3008708355150385</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3823468376829383</v>
+        <v>0.3822137383381382</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>318</v>
@@ -1199,19 +1199,19 @@
         <v>334197</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>305590</v>
+        <v>307101</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>361144</v>
+        <v>358896</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4845237401685425</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4430482452309053</v>
+        <v>0.4452398032232227</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5235919126142355</v>
+        <v>0.5203326199712542</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>530</v>
@@ -1220,19 +1220,19 @@
         <v>551872</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>513756</v>
+        <v>516912</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>588801</v>
+        <v>589471</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4154372731574222</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.386744484517929</v>
+        <v>0.3891204870909127</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4432366055581162</v>
+        <v>0.4437412056092354</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>420994</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>394475</v>
+        <v>394560</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>443314</v>
+        <v>446511</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6591743008927817</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6176531623170618</v>
+        <v>0.6177862616618618</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.69412271646252</v>
+        <v>0.6991291644849614</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>340</v>
@@ -1270,19 +1270,19 @@
         <v>355547</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>328600</v>
+        <v>330848</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>384154</v>
+        <v>382643</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5154762598314575</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4764080873857645</v>
+        <v>0.479667380028746</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5569517547690949</v>
+        <v>0.5547601967767775</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>741</v>
@@ -1291,19 +1291,19 @@
         <v>776540</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>739611</v>
+        <v>738941</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>814656</v>
+        <v>811500</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5845627268425778</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5567633944418836</v>
+        <v>0.5562587943907648</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6132555154820709</v>
+        <v>0.6108795129090875</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>220951</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>198422</v>
+        <v>196635</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>245709</v>
+        <v>244012</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4256032188872638</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3822079594604696</v>
+        <v>0.3787650985734343</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4732938147366219</v>
+        <v>0.4700252185601823</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>304</v>
@@ -1416,19 +1416,19 @@
         <v>310676</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>288916</v>
+        <v>289194</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>330704</v>
+        <v>333832</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6025024952936385</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5603025708114245</v>
+        <v>0.5608418337299973</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6413440836982081</v>
+        <v>0.6474103765257934</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>507</v>
@@ -1437,19 +1437,19 @@
         <v>531626</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>502922</v>
+        <v>501783</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>566335</v>
+        <v>567218</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5137532591630017</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4860145173116622</v>
+        <v>0.4849136752602197</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5472952669605174</v>
+        <v>0.5481482961980249</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>298196</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>273438</v>
+        <v>275135</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>320725</v>
+        <v>322512</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5743967811127362</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.526706185263378</v>
+        <v>0.5299747814398179</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6177920405395304</v>
+        <v>0.6212349014265661</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>198</v>
@@ -1487,19 +1487,19 @@
         <v>204966</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>184938</v>
+        <v>181810</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>226726</v>
+        <v>226448</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3974975047063614</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3586559163017917</v>
+        <v>0.3525896234742074</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4396974291885748</v>
+        <v>0.4391581662700026</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>479</v>
@@ -1508,19 +1508,19 @@
         <v>503163</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>468454</v>
+        <v>467571</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>531867</v>
+        <v>533006</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4862467408369983</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4527047330394825</v>
+        <v>0.4518517038019749</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5139854826883377</v>
+        <v>0.5150863247397801</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>256031</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>236929</v>
+        <v>233800</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>273563</v>
+        <v>273873</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6620743219183544</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6126788156440864</v>
+        <v>0.6045872443274959</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7074108262757989</v>
+        <v>0.7082132173986943</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>280</v>
@@ -1633,19 +1633,19 @@
         <v>284516</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>266366</v>
+        <v>265356</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>302521</v>
+        <v>301709</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7042731675432062</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.659343705025405</v>
+        <v>0.6568451073613769</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7488394803627574</v>
+        <v>0.7468297249688416</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>543</v>
@@ -1654,19 +1654,19 @@
         <v>540547</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>512689</v>
+        <v>514958</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>565348</v>
+        <v>567023</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6836347467293635</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6484016286604498</v>
+        <v>0.6512723914969374</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.715001052680648</v>
+        <v>0.7171194732344388</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>130679</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>113147</v>
+        <v>112837</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>149781</v>
+        <v>152910</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3379256780816456</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2925891737242009</v>
+        <v>0.2917867826013057</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.387321184355913</v>
+        <v>0.3954127556725042</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>116</v>
@@ -1704,19 +1704,19 @@
         <v>119470</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>101465</v>
+        <v>102277</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>137620</v>
+        <v>138630</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2957268324567938</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2511605196372426</v>
+        <v>0.2531702750311584</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3406562949745951</v>
+        <v>0.343154892638623</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>245</v>
@@ -1725,19 +1725,19 @@
         <v>250149</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>225348</v>
+        <v>223673</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>278007</v>
+        <v>275738</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3163652532706365</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2849989473193518</v>
+        <v>0.2828805267655616</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3515983713395501</v>
+        <v>0.3487276085030627</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>225336</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>210452</v>
+        <v>210337</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>238693</v>
+        <v>239085</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7701606811459817</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.719289521344168</v>
+        <v>0.7188955368698521</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.815812481099031</v>
+        <v>0.8171535773665203</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>326</v>
@@ -1850,19 +1850,19 @@
         <v>300124</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>286775</v>
+        <v>288851</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>311488</v>
+        <v>311763</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.875166174232116</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8362397916036306</v>
+        <v>0.8422931102287655</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9083026614269941</v>
+        <v>0.9091055211098859</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>562</v>
@@ -1871,19 +1871,19 @@
         <v>525460</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>505050</v>
+        <v>505358</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>541089</v>
+        <v>543164</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8268231366051445</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.794706735448905</v>
+        <v>0.7951924530135754</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8514153482219377</v>
+        <v>0.8546810977522529</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>67247</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>53890</v>
+        <v>53498</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>82131</v>
+        <v>82246</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2298393188540183</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.184187518900969</v>
+        <v>0.1828464226334798</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2807104786558322</v>
+        <v>0.281104463130148</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>45</v>
@@ -1921,19 +1921,19 @@
         <v>42810</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>31446</v>
+        <v>31171</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>56159</v>
+        <v>54083</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.124833825767884</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09169733857300591</v>
+        <v>0.09089447889011425</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1637602083963703</v>
+        <v>0.1577068897712345</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>112</v>
@@ -1942,19 +1942,19 @@
         <v>110057</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>94428</v>
+        <v>92353</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>130467</v>
+        <v>130159</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1731768633948555</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1485846517780623</v>
+        <v>0.145318902247746</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2052932645510948</v>
+        <v>0.2048075469864246</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>190427</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>180999</v>
+        <v>179221</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>197748</v>
+        <v>197933</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9073030600489657</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8623803937411167</v>
+        <v>0.8539075883014317</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9421818730067679</v>
+        <v>0.9430631844941906</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>278</v>
@@ -2067,19 +2067,19 @@
         <v>320097</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>310739</v>
+        <v>311919</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>326346</v>
+        <v>326993</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9586394341693459</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9306120117484261</v>
+        <v>0.9341459791707587</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.977354287494034</v>
+        <v>0.979290315275015</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>479</v>
@@ -2088,19 +2088,19 @@
         <v>510525</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>496826</v>
+        <v>498235</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>520464</v>
+        <v>520733</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9388255119535784</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9136349408395907</v>
+        <v>0.916226074332769</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9571038441368223</v>
+        <v>0.9575969164421825</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>19456</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12135</v>
+        <v>11950</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>28884</v>
+        <v>30662</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09269693995103438</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05781812699323198</v>
+        <v>0.05693681550580889</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1376196062588832</v>
+        <v>0.1460924116985682</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -2138,19 +2138,19 @@
         <v>13811</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7562</v>
+        <v>6915</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>23169</v>
+        <v>21989</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0413605658306541</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02264571250596608</v>
+        <v>0.02070968472498507</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06938798825157352</v>
+        <v>0.0658540208292412</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>31</v>
@@ -2159,19 +2159,19 @@
         <v>33266</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>23327</v>
+        <v>23058</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>46965</v>
+        <v>45556</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06117448804642157</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04289615586317772</v>
+        <v>0.04240308355781749</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08636505916040924</v>
+        <v>0.08377392566723071</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>1394942</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1341965</v>
+        <v>1336796</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1458655</v>
+        <v>1449845</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4257358970184624</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4095674504047762</v>
+        <v>0.407989781229815</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4451812457700149</v>
+        <v>0.4424922896567671</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1869</v>
@@ -2284,19 +2284,19 @@
         <v>1927947</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1867012</v>
+        <v>1871572</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1984335</v>
+        <v>1987844</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5705339626011435</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5525015884179793</v>
+        <v>0.5538512447247268</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5872208854678156</v>
+        <v>0.5882591944745356</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3258</v>
@@ -2305,19 +2305,19 @@
         <v>3322889</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3239001</v>
+        <v>3243155</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3400042</v>
+        <v>3404198</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4992515672809898</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4866476978769131</v>
+        <v>0.4872718249871985</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5108434802487847</v>
+        <v>0.5114678552534737</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>1881601</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1817888</v>
+        <v>1826698</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1934578</v>
+        <v>1939747</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5742641029815375</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5548187542299851</v>
+        <v>0.5575077103432329</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5904325495952237</v>
+        <v>0.592010218770185</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1428</v>
@@ -2355,19 +2355,19 @@
         <v>1451250</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1394862</v>
+        <v>1391353</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1512185</v>
+        <v>1507625</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4294660373988565</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4127791145321846</v>
+        <v>0.4117408055254648</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4474984115820209</v>
+        <v>0.4461487552752735</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3253</v>
@@ -2376,19 +2376,19 @@
         <v>3332852</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3255699</v>
+        <v>3251543</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3416740</v>
+        <v>3412586</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5007484327190102</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4891565197512151</v>
+        <v>0.4885321447465261</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5133523021230868</v>
+        <v>0.5127281750128015</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>110419</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>91918</v>
+        <v>90800</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>128573</v>
+        <v>129901</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2431355792687357</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2023984885382091</v>
+        <v>0.1999356524112114</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2831085322435239</v>
+        <v>0.2860332243855163</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>118</v>
@@ -2744,19 +2744,19 @@
         <v>121497</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>103232</v>
+        <v>104475</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>140687</v>
+        <v>140502</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2824006284084161</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2399456729129026</v>
+        <v>0.242834565156013</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.327003448149049</v>
+        <v>0.3265751218663426</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>227</v>
@@ -2765,19 +2765,19 @@
         <v>231916</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>205856</v>
+        <v>208186</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>259095</v>
+        <v>261213</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2622371777205606</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2327698463440105</v>
+        <v>0.2354042486168416</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2929687606390504</v>
+        <v>0.2953644633876222</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>343727</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>325573</v>
+        <v>324245</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>362228</v>
+        <v>363346</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7568644207312643</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7168914677564758</v>
+        <v>0.7139667756144837</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7976015114617905</v>
+        <v>0.8000643475887885</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>303</v>
@@ -2815,19 +2815,19 @@
         <v>308733</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>289543</v>
+        <v>289728</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>326998</v>
+        <v>325755</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7175993715915838</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.672996551850951</v>
+        <v>0.6734248781336568</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7600543270870973</v>
+        <v>0.757165434843987</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>640</v>
@@ -2836,19 +2836,19 @@
         <v>652460</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>625281</v>
+        <v>623163</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>678520</v>
+        <v>676190</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7377628222794395</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7070312393609497</v>
+        <v>0.7046355366123778</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7672301536559896</v>
+        <v>0.7645957513831584</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>191997</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>169787</v>
+        <v>170826</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>215975</v>
+        <v>219085</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2794358611790168</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2471113536567646</v>
+        <v>0.2486237679932144</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3143346096874891</v>
+        <v>0.3188609305923367</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>202</v>
@@ -2961,19 +2961,19 @@
         <v>214032</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>191049</v>
+        <v>191483</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>237576</v>
+        <v>238478</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3507259121250796</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3130639068135092</v>
+        <v>0.313776058258474</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3893064500727396</v>
+        <v>0.3907835769032866</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>382</v>
@@ -2982,19 +2982,19 @@
         <v>406029</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>373128</v>
+        <v>375742</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>442705</v>
+        <v>444246</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.312969905505982</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2876098444627244</v>
+        <v>0.2896242704742164</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3412396350125065</v>
+        <v>0.3424281972369776</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>495090</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>471112</v>
+        <v>468002</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>517300</v>
+        <v>516261</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7205641388209832</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6856653903125109</v>
+        <v>0.6811390694076633</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7528886463432354</v>
+        <v>0.7513762320067857</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>369</v>
@@ -3032,19 +3032,19 @@
         <v>396223</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>372679</v>
+        <v>371777</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>419206</v>
+        <v>418772</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6492740878749204</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6106935499272604</v>
+        <v>0.6092164230967134</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6869360931864907</v>
+        <v>0.686223941741526</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>856</v>
@@ -3053,19 +3053,19 @@
         <v>891313</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>854637</v>
+        <v>853096</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>924214</v>
+        <v>921600</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.687030094494018</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6587603649874936</v>
+        <v>0.6575718027630225</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7123901555372757</v>
+        <v>0.7103757295257838</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>243766</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>218288</v>
+        <v>219888</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>269352</v>
+        <v>271126</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3575003108042754</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3201350121858076</v>
+        <v>0.3224815480943304</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3950229211092996</v>
+        <v>0.397624643680172</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>295</v>
@@ -3178,19 +3178,19 @@
         <v>314960</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>287031</v>
+        <v>289607</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>342464</v>
+        <v>345369</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4430758367774016</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.403785232502885</v>
+        <v>0.4074097053165183</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4817665274126527</v>
+        <v>0.4858541339770099</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>530</v>
@@ -3199,19 +3199,19 @@
         <v>558726</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>520172</v>
+        <v>518223</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>596282</v>
+        <v>595050</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4011786301008524</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3734960821213713</v>
+        <v>0.3720961485387836</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4281443330045733</v>
+        <v>0.4272595515092896</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>438097</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>412511</v>
+        <v>410737</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>463575</v>
+        <v>461975</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6424996891957245</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6049770788907004</v>
+        <v>0.602375356319828</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6798649878141924</v>
+        <v>0.6775184519056697</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>372</v>
@@ -3249,19 +3249,19 @@
         <v>395890</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>368386</v>
+        <v>365481</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>423819</v>
+        <v>421243</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5569241632225983</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5182334725873473</v>
+        <v>0.5141458660229901</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.596214767497115</v>
+        <v>0.5925902946834817</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>788</v>
@@ -3270,19 +3270,19 @@
         <v>833986</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>796430</v>
+        <v>797662</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>872540</v>
+        <v>874489</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5988213698991477</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5718556669954266</v>
+        <v>0.5727404484907104</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6265039178786287</v>
+        <v>0.6279038514612164</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>253169</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>226365</v>
+        <v>227491</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>278814</v>
+        <v>279826</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4119142058975732</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3683020241219319</v>
+        <v>0.3701349914774308</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4536386448223753</v>
+        <v>0.4552845991533133</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>268</v>
@@ -3395,19 +3395,19 @@
         <v>310275</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>286925</v>
+        <v>283323</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>337859</v>
+        <v>335107</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.503531198111862</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4656373075703045</v>
+        <v>0.4597918883599298</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.548294858009983</v>
+        <v>0.5438284933949181</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>492</v>
@@ -3416,19 +3416,19 @@
         <v>563445</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>522279</v>
+        <v>527380</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>599029</v>
+        <v>601472</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4577815965381988</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4243351685620422</v>
+        <v>0.4284799472928452</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4866921634088808</v>
+        <v>0.4886772560006322</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>361448</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>335803</v>
+        <v>334791</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>388252</v>
+        <v>387126</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5880857941024268</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5463613551776249</v>
+        <v>0.5447154008466871</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6316979758780683</v>
+        <v>0.6298650085225693</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>271</v>
@@ -3466,19 +3466,19 @@
         <v>305924</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>278340</v>
+        <v>281092</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>329274</v>
+        <v>332876</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.496468801888138</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4517051419900169</v>
+        <v>0.456171506605082</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5343626924296955</v>
+        <v>0.5402081116400705</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>595</v>
@@ -3487,19 +3487,19 @@
         <v>667371</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>631787</v>
+        <v>629344</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>708537</v>
+        <v>703436</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5422184034618012</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5133078365911192</v>
+        <v>0.5113227439993678</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5756648314379578</v>
+        <v>0.5715200527071549</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>254086</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>232781</v>
+        <v>232429</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>276443</v>
+        <v>274645</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5916830640463343</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5420717162456894</v>
+        <v>0.5412519006290082</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.64374531515391</v>
+        <v>0.6395580953683946</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>286</v>
@@ -3612,19 +3612,19 @@
         <v>316933</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>296520</v>
+        <v>294559</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>336563</v>
+        <v>335150</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7077564248033896</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6621713726880262</v>
+        <v>0.6577903405466161</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7515912942535834</v>
+        <v>0.7484363224785753</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>518</v>
@@ -3633,19 +3633,19 @@
         <v>571019</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>539235</v>
+        <v>540375</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>601203</v>
+        <v>599177</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6509351424312595</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6147021079341357</v>
+        <v>0.6160020097011698</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6853427870260788</v>
+        <v>0.6830339649949345</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>175343</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>152986</v>
+        <v>154784</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>196648</v>
+        <v>197000</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4083169359536656</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3562546848460897</v>
+        <v>0.3604419046316054</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4579282837543105</v>
+        <v>0.4587480993709918</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>120</v>
@@ -3683,19 +3683,19 @@
         <v>130867</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>111237</v>
+        <v>112650</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>151280</v>
+        <v>153241</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2922435751966103</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2484087057464165</v>
+        <v>0.2515636775214248</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3378286273119738</v>
+        <v>0.3422096594533838</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>281</v>
@@ -3704,19 +3704,19 @@
         <v>306210</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>276026</v>
+        <v>278052</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>337994</v>
+        <v>336854</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3490648575687405</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3146572129739212</v>
+        <v>0.3169660350050655</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3852978920658643</v>
+        <v>0.3839979902988302</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>235553</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>217522</v>
+        <v>219302</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>249161</v>
+        <v>249746</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7603741307130731</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7021688926022912</v>
+        <v>0.7079153744518972</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8042995443683807</v>
+        <v>0.8061901716178402</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>281</v>
@@ -3829,19 +3829,19 @@
         <v>286724</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>269776</v>
+        <v>271129</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>301346</v>
+        <v>301050</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.809965007620833</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7620864641361863</v>
+        <v>0.7659101646252896</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8512702200019644</v>
+        <v>0.8504333622624178</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>494</v>
@@ -3850,19 +3850,19 @@
         <v>522278</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>498466</v>
+        <v>499261</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>544248</v>
+        <v>544512</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7868210172518384</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7509481223235015</v>
+        <v>0.7521467449470116</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8199203769015264</v>
+        <v>0.820316789977226</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>74233</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>60625</v>
+        <v>60040</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>92264</v>
+        <v>90484</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2396258692869269</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1957004556316193</v>
+        <v>0.1938098283821597</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2978311073977088</v>
+        <v>0.2920846255481027</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>63</v>
@@ -3900,19 +3900,19 @@
         <v>67272</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>52650</v>
+        <v>52946</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>84220</v>
+        <v>82867</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.190034992379167</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1487297799980357</v>
+        <v>0.1495666377375822</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2379135358638138</v>
+        <v>0.2340898353747104</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>132</v>
@@ -3921,19 +3921,19 @@
         <v>141504</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>119534</v>
+        <v>119270</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>165316</v>
+        <v>164521</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2131789827481616</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1800796230984735</v>
+        <v>0.179683210022774</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2490518776764984</v>
+        <v>0.2478532550529883</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>218442</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>205537</v>
+        <v>207171</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>228120</v>
+        <v>228810</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8742871165857321</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8226398067363092</v>
+        <v>0.8291783211931854</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9130250233223164</v>
+        <v>0.9157855195825159</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>330</v>
@@ -4046,19 +4046,19 @@
         <v>367331</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>356511</v>
+        <v>356542</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>374977</v>
+        <v>375958</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9443466297169489</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9165312206314031</v>
+        <v>0.9166099453264921</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9640028574342049</v>
+        <v>0.9665259126755688</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>524</v>
@@ -4067,19 +4067,19 @@
         <v>585773</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>569477</v>
+        <v>568767</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>598062</v>
+        <v>598872</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9169458607672091</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8914372071371465</v>
+        <v>0.8903260202549534</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9361827261612945</v>
+        <v>0.9374517760559886</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>31409</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>21731</v>
+        <v>21041</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>44314</v>
+        <v>42680</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1257128834142679</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08697497667768367</v>
+        <v>0.08421448041748432</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1773601932636908</v>
+        <v>0.1708216788068148</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>20</v>
@@ -4117,19 +4117,19 @@
         <v>21648</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>14002</v>
+        <v>13021</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>32468</v>
+        <v>32437</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05565337028305101</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03599714256579512</v>
+        <v>0.03347408732443046</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08346877936859692</v>
+        <v>0.08339005467350757</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>48</v>
@@ -4138,19 +4138,19 @@
         <v>53057</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>40768</v>
+        <v>39958</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>69353</v>
+        <v>70063</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0830541392327909</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06381727383870534</v>
+        <v>0.06254822394401136</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1085627928628533</v>
+        <v>0.1096739797450466</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>1507432</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1445232</v>
+        <v>1448023</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1568969</v>
+        <v>1569492</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4398976793016143</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4217463439527973</v>
+        <v>0.4225608841561045</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4578554008318809</v>
+        <v>0.458007807657544</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1780</v>
@@ -4263,19 +4263,19 @@
         <v>1931754</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1865313</v>
+        <v>1866993</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1989355</v>
+        <v>1992996</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5428854018060206</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.524213308600714</v>
+        <v>0.5246853913671619</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5590731126531147</v>
+        <v>0.5600963739409184</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3167</v>
@@ -4284,19 +4284,19 @@
         <v>3439186</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3354090</v>
+        <v>3352619</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3530737</v>
+        <v>3522678</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4923611774970886</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4801786269210465</v>
+        <v>0.4799680084678725</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5054677359646127</v>
+        <v>0.504313992766655</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>1919347</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1857810</v>
+        <v>1857287</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1981547</v>
+        <v>1978756</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5601023206983856</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5421445991681192</v>
+        <v>0.5419921923424561</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5782536560472027</v>
+        <v>0.5774391158438954</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1518</v>
@@ -4334,19 +4334,19 @@
         <v>1626555</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1568954</v>
+        <v>1565313</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1692996</v>
+        <v>1691316</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4571145981939794</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4409268873468855</v>
+        <v>0.4399036260590817</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.475786691399286</v>
+        <v>0.4753146086328383</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3340</v>
@@ -4355,19 +4355,19 @@
         <v>3545902</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3454351</v>
+        <v>3462410</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3630998</v>
+        <v>3632469</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5076388225029114</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4945322640353871</v>
+        <v>0.4956860072333449</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5198213730789534</v>
+        <v>0.5200319915321275</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>76407</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>61045</v>
+        <v>60693</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>94778</v>
+        <v>95305</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1821533189900305</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1455323493747918</v>
+        <v>0.1446922462717625</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2259499182116619</v>
+        <v>0.2272070178440416</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>85</v>
@@ -4723,19 +4723,19 @@
         <v>85454</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>70945</v>
+        <v>69730</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>101135</v>
+        <v>102017</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2159277431931017</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1792646398542239</v>
+        <v>0.1761949612818265</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2555482855290085</v>
+        <v>0.257779139778777</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>154</v>
@@ -4744,19 +4744,19 @@
         <v>161861</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>138758</v>
+        <v>143022</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>184610</v>
+        <v>190513</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.198549420801302</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1702094101475888</v>
+        <v>0.1754403291048925</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2264550702817749</v>
+        <v>0.2336958988570419</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>343056</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>324685</v>
+        <v>324158</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>358418</v>
+        <v>358770</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8178466810099695</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.774050081788338</v>
+        <v>0.7727929821559586</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8544676506252081</v>
+        <v>0.8553077537282378</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>319</v>
@@ -4794,19 +4794,19 @@
         <v>310301</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>294620</v>
+        <v>293738</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>324810</v>
+        <v>326025</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7840722568068983</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7444517144709913</v>
+        <v>0.742220860221223</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8207353601457761</v>
+        <v>0.8238050387181735</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>643</v>
@@ -4815,19 +4815,19 @@
         <v>653357</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>630608</v>
+        <v>624705</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>676460</v>
+        <v>672196</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.801450579198698</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7735449297182259</v>
+        <v>0.766304101142958</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8297905898524126</v>
+        <v>0.8245596708951075</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>128665</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>108235</v>
+        <v>109253</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>149592</v>
+        <v>150020</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2178928200406982</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1832945402937065</v>
+        <v>0.1850189655879889</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2533321404322217</v>
+        <v>0.2540578990631943</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>132</v>
@@ -4940,19 +4940,19 @@
         <v>131008</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>111906</v>
+        <v>111027</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>151251</v>
+        <v>151308</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2324711245892598</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1985762464662733</v>
+        <v>0.1970159210624925</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2683917574226045</v>
+        <v>0.2684928952607099</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>253</v>
@@ -4961,19 +4961,19 @@
         <v>259673</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>231857</v>
+        <v>230356</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>289259</v>
+        <v>287751</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2250117343191219</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2009087625471698</v>
+        <v>0.1996087148233157</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2506494324886851</v>
+        <v>0.2493420743486877</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>461831</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>440904</v>
+        <v>440476</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>482261</v>
+        <v>481243</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7821071799593019</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7466678595677783</v>
+        <v>0.7459421009368066</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8167054597062933</v>
+        <v>0.8149810344120111</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>447</v>
@@ -5011,19 +5011,19 @@
         <v>432536</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>412293</v>
+        <v>412236</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>451638</v>
+        <v>452517</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7675288754107402</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7316082425773957</v>
+        <v>0.73150710473929</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8014237535337267</v>
+        <v>0.8029840789375075</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>893</v>
@@ -5032,19 +5032,19 @@
         <v>894367</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>864781</v>
+        <v>866289</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>922183</v>
+        <v>923684</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7749882656808781</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7493505675113148</v>
+        <v>0.7506579256513122</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7990912374528302</v>
+        <v>0.8003912851766842</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>160940</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>138554</v>
+        <v>140018</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>182094</v>
+        <v>182937</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2405329218179313</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2070754173571401</v>
+        <v>0.2092637860594818</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2721485934002397</v>
+        <v>0.2734093907060626</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>223</v>
@@ -5157,19 +5157,19 @@
         <v>226584</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>204514</v>
+        <v>202826</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>253596</v>
+        <v>251141</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3425891242024736</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3092204133668747</v>
+        <v>0.306668675595823</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3834305870583085</v>
+        <v>0.3797186789372503</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>375</v>
@@ -5178,19 +5178,19 @@
         <v>387524</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>354020</v>
+        <v>352900</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>421604</v>
+        <v>419219</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2912653051056541</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2660835304144167</v>
+        <v>0.26524185753179</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.316880247445989</v>
+        <v>0.3150879405295438</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>508157</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>487003</v>
+        <v>486160</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>530543</v>
+        <v>529079</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7594670781820687</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7278514065997602</v>
+        <v>0.7265906092939373</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7929245826428599</v>
+        <v>0.7907362139405182</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>442</v>
@@ -5228,19 +5228,19 @@
         <v>434802</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>407790</v>
+        <v>410245</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>456872</v>
+        <v>458560</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6574108757975264</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6165694129416917</v>
+        <v>0.6202813210627497</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6907795866331252</v>
+        <v>0.693331324404177</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>928</v>
@@ -5249,19 +5249,19 @@
         <v>942959</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>908879</v>
+        <v>911264</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>976463</v>
+        <v>977583</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7087346948943459</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6831197525540109</v>
+        <v>0.6849120594704566</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7339164695855832</v>
+        <v>0.7347581424682103</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>247394</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>221426</v>
+        <v>220622</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>274217</v>
+        <v>275971</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3829337309616402</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3427391524249531</v>
+        <v>0.3414950779595219</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4244535715509754</v>
+        <v>0.4271686238224078</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>261</v>
@@ -5374,19 +5374,19 @@
         <v>284145</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>257782</v>
+        <v>258688</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>309926</v>
+        <v>306796</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4377682286952678</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.397152106869651</v>
+        <v>0.398547280078061</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4774868984643442</v>
+        <v>0.4726654018866034</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>480</v>
@@ -5395,19 +5395,19 @@
         <v>531539</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>494844</v>
+        <v>497780</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>565002</v>
+        <v>570514</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4104150948632429</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3820821269095974</v>
+        <v>0.3843493318060552</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4362531563586179</v>
+        <v>0.4405090241122879</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>398654</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>371831</v>
+        <v>370077</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>424622</v>
+        <v>425426</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6170662690383598</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5755464284490246</v>
+        <v>0.5728313761775922</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6572608475750469</v>
+        <v>0.6585049220404782</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>341</v>
@@ -5445,19 +5445,19 @@
         <v>364932</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>339151</v>
+        <v>342281</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>391295</v>
+        <v>390389</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5622317713047322</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5225131015356558</v>
+        <v>0.5273345981133966</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.602847893130349</v>
+        <v>0.601452719921939</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>704</v>
@@ -5466,19 +5466,19 @@
         <v>763586</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>730123</v>
+        <v>724611</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>800281</v>
+        <v>797345</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5895849051367571</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5637468436413822</v>
+        <v>0.5594909758877121</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6179178730904026</v>
+        <v>0.6156506681939448</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>269437</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>246760</v>
+        <v>246943</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>291350</v>
+        <v>291861</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.563772198779433</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5163221656700598</v>
+        <v>0.5167056676275563</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6096243968554673</v>
+        <v>0.6106928621199303</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>272</v>
@@ -5591,19 +5591,19 @@
         <v>311962</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>290195</v>
+        <v>291461</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>334225</v>
+        <v>334475</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6278806018919245</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5840715914788555</v>
+        <v>0.586617992480528</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6726887485436814</v>
+        <v>0.6731927704796365</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>512</v>
@@ -5612,19 +5612,19 @@
         <v>581399</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>545483</v>
+        <v>551041</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>613233</v>
+        <v>615086</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5964489267273089</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5596038328998226</v>
+        <v>0.5653058158331982</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6291077391961853</v>
+        <v>0.631007884171177</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>208481</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>186568</v>
+        <v>186057</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>231158</v>
+        <v>230975</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4362278012205671</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3903756031445327</v>
+        <v>0.3893071378800698</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4836778343299401</v>
+        <v>0.4832943323724437</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>161</v>
@@ -5662,19 +5662,19 @@
         <v>184887</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>162624</v>
+        <v>162374</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206654</v>
+        <v>205388</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3721193981080755</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3273112514563187</v>
+        <v>0.3268072295203635</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4159284085211445</v>
+        <v>0.413382007519472</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>345</v>
@@ -5683,19 +5683,19 @@
         <v>393368</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>361534</v>
+        <v>359681</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>429284</v>
+        <v>423726</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4035510732726912</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3708922608038149</v>
+        <v>0.3689921158288229</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4403961671001776</v>
+        <v>0.4346941841668019</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>228237</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>208082</v>
+        <v>211373</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>243594</v>
+        <v>245027</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6826691138125954</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6223846802253344</v>
+        <v>0.6322271790915395</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7286046309108543</v>
+        <v>0.7328896598204071</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>274</v>
@@ -5808,19 +5808,19 @@
         <v>291477</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>274374</v>
+        <v>273452</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>307814</v>
+        <v>308052</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7715890989841684</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7263133703939666</v>
+        <v>0.7238745981407066</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8148354594330862</v>
+        <v>0.8154662714189586</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>495</v>
@@ -5829,19 +5829,19 @@
         <v>519714</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>496490</v>
+        <v>495776</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>545379</v>
+        <v>544901</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7298408157725004</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6972276913260164</v>
+        <v>0.6962242959651177</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7658821763426374</v>
+        <v>0.7652119093307185</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>106093</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>90736</v>
+        <v>89303</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>126248</v>
+        <v>122957</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3173308861874046</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2713953690891458</v>
+        <v>0.267110340179593</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3776153197746657</v>
+        <v>0.3677728209084606</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>80</v>
@@ -5879,19 +5879,19 @@
         <v>86285</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>69948</v>
+        <v>69710</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>103388</v>
+        <v>104310</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2284109010158316</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1851645405669139</v>
+        <v>0.1845337285810411</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2736866296060334</v>
+        <v>0.276125401859293</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>184</v>
@@ -5900,19 +5900,19 @@
         <v>192378</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>166713</v>
+        <v>167191</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>215602</v>
+        <v>216316</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2701591842274997</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2341178236573624</v>
+        <v>0.2347880906692813</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3027723086739835</v>
+        <v>0.3037757040348822</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>210935</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>199228</v>
+        <v>199865</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>220972</v>
+        <v>221934</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8207642314214654</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.775211896191571</v>
+        <v>0.7776914759477225</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8598198724634536</v>
+        <v>0.8635621163648399</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>274</v>
@@ -6025,19 +6025,19 @@
         <v>364632</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>350791</v>
+        <v>349907</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>376255</v>
+        <v>375707</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9111944932267733</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8766070792916965</v>
+        <v>0.8743989165587448</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9402394684123623</v>
+        <v>0.9388696846466094</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>520</v>
@@ -6046,19 +6046,19 @@
         <v>575567</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>557240</v>
+        <v>557014</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>590945</v>
+        <v>591236</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8758299717242921</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.847943259314773</v>
+        <v>0.8475986331458024</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8992315926859114</v>
+        <v>0.8996735053207233</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>46063</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>36026</v>
+        <v>35064</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>57770</v>
+        <v>57133</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1792357685785347</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1401801275365465</v>
+        <v>0.1364378836351602</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2247881038084291</v>
+        <v>0.2223085240522776</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>27</v>
@@ -6096,19 +6096,19 @@
         <v>35537</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>23914</v>
+        <v>24462</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>49378</v>
+        <v>50262</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0888055067732267</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05976053158763776</v>
+        <v>0.06113031535339058</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1233929207083035</v>
+        <v>0.1256010834412552</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>83</v>
@@ -6117,19 +6117,19 @@
         <v>81600</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>66222</v>
+        <v>65931</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>99927</v>
+        <v>100153</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1241700282757078</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1007684073140885</v>
+        <v>0.1003264946792765</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.152056740685226</v>
+        <v>0.152401366854197</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>1322013</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1268098</v>
+        <v>1255147</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1386257</v>
+        <v>1378417</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3894746405798993</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3735907349036597</v>
+        <v>0.3697753228084997</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4084013041644168</v>
+        <v>0.406091569091004</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1521</v>
@@ -6242,19 +6242,19 @@
         <v>1695262</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1633430</v>
+        <v>1635818</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1762345</v>
+        <v>1761865</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.478273873143024</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.460829771090308</v>
+        <v>0.4615034713348286</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4971996481003389</v>
+        <v>0.4970641357587558</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2789</v>
@@ -6263,19 +6263,19 @@
         <v>3017275</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2920616</v>
+        <v>2931046</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3094046</v>
+        <v>3095063</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4348352822758739</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4209052520940043</v>
+        <v>0.4224083274331116</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4458991768283715</v>
+        <v>0.4460456948658646</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2072337</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2008093</v>
+        <v>2015933</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2126252</v>
+        <v>2139203</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6105253594201008</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5915986958355831</v>
+        <v>0.5939084309089959</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6264092650963403</v>
+        <v>0.6302246771915002</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1817</v>
@@ -6313,19 +6313,19 @@
         <v>1849280</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1782197</v>
+        <v>1782677</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1911112</v>
+        <v>1908724</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5217261268569759</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5028003518996611</v>
+        <v>0.5029358642412443</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5391702289096919</v>
+        <v>0.5384965286651715</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3780</v>
@@ -6334,19 +6334,19 @@
         <v>3921617</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3844846</v>
+        <v>3843829</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4018276</v>
+        <v>4007846</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5651647177241261</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5541008231716285</v>
+        <v>0.5539543051341353</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5790947479059956</v>
+        <v>0.5775916725668884</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>82445</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57318</v>
+        <v>60363</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>108926</v>
+        <v>112441</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2021736369694959</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.140556789654368</v>
+        <v>0.1480247222809455</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2671100431740044</v>
+        <v>0.2757301754365923</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -6702,19 +6702,19 @@
         <v>70907</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52236</v>
+        <v>51667</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>94979</v>
+        <v>94976</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1964095005266454</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1446919678021042</v>
+        <v>0.14311661094215</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2630884495747602</v>
+        <v>0.2630812966694955</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>69</v>
@@ -6723,19 +6723,19 @@
         <v>153352</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>121598</v>
+        <v>119360</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>192037</v>
+        <v>186045</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1994669274542451</v>
+        <v>0.199466927454245</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1581645838241919</v>
+        <v>0.155253149461626</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2497850421811305</v>
+        <v>0.2419917958621152</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>325348</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>298867</v>
+        <v>295352</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>350475</v>
+        <v>347430</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.797826363030504</v>
+        <v>0.7978263630305042</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7328899568259956</v>
+        <v>0.7242698245634073</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8594432103456319</v>
+        <v>0.8519752777190545</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>170</v>
@@ -6773,19 +6773,19 @@
         <v>290108</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>266036</v>
+        <v>266039</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>308779</v>
+        <v>309348</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8035904994733546</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7369115504252399</v>
+        <v>0.7369187033305048</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8553080321978961</v>
+        <v>0.85688338905785</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>309</v>
@@ -6794,19 +6794,19 @@
         <v>615457</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>576772</v>
+        <v>582764</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>647211</v>
+        <v>649449</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8005330725457549</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7502149578188699</v>
+        <v>0.7580082041378847</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.841835416175808</v>
+        <v>0.844746850538374</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>143263</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>116349</v>
+        <v>118517</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>171700</v>
+        <v>167806</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3004106100935328</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2439743853171757</v>
+        <v>0.2485205592181993</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3600421001680139</v>
+        <v>0.3518762617428586</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>136</v>
@@ -6919,19 +6919,19 @@
         <v>145382</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>123342</v>
+        <v>124409</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>167207</v>
+        <v>167392</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2904719706173702</v>
+        <v>0.2904719706173701</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2464365750814928</v>
+        <v>0.2485672689189591</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3340766313471544</v>
+        <v>0.3344478593877963</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>228</v>
@@ -6940,19 +6940,19 @@
         <v>288645</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>257000</v>
+        <v>255981</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>319783</v>
+        <v>322579</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2953212326500988</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2629441137270355</v>
+        <v>0.2619017366825454</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3271795845954554</v>
+        <v>0.3300401260305001</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>333627</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>305190</v>
+        <v>309084</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>360541</v>
+        <v>358373</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.699589389906467</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6399578998319863</v>
+        <v>0.6481237382571412</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7560256146828246</v>
+        <v>0.7514794407818007</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>323</v>
@@ -6990,19 +6990,19 @@
         <v>355122</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>333297</v>
+        <v>333112</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>377162</v>
+        <v>376095</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7095280293826298</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6659233686528456</v>
+        <v>0.6655521406122037</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7535634249185076</v>
+        <v>0.7514327310810409</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>533</v>
@@ -7011,19 +7011,19 @@
         <v>688749</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>657611</v>
+        <v>654815</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>720394</v>
+        <v>721413</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7046787673499012</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6728204154045447</v>
+        <v>0.6699598739694999</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7370558862729641</v>
+        <v>0.7380982633174549</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>204853</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>179987</v>
+        <v>180614</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>229740</v>
+        <v>229480</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3304884525484206</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2903717782099295</v>
+        <v>0.2913842665743986</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3706392501650642</v>
+        <v>0.3702190143833914</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>322</v>
@@ -7136,19 +7136,19 @@
         <v>228902</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>210290</v>
+        <v>209479</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>248294</v>
+        <v>249569</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3683891378705063</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3384359325578663</v>
+        <v>0.337130212368088</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3995984902268306</v>
+        <v>0.4016509432560685</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>509</v>
@@ -7157,19 +7157,19 @@
         <v>433754</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>402187</v>
+        <v>404000</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>465055</v>
+        <v>465808</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3494618398586561</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3240290823171976</v>
+        <v>0.3254898040884714</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3746799501852759</v>
+        <v>0.3752862121487826</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>414996</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>390109</v>
+        <v>390369</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>439862</v>
+        <v>439235</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6695115474515795</v>
+        <v>0.6695115474515796</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.629360749834936</v>
+        <v>0.6297809856166086</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7096282217900706</v>
+        <v>0.7086157334256012</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>523</v>
@@ -7207,19 +7207,19 @@
         <v>392456</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>373064</v>
+        <v>371789</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>411068</v>
+        <v>411879</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6316108621294937</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6004015097731695</v>
+        <v>0.5983490567439316</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6615640674421339</v>
+        <v>0.6628697876319124</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>881</v>
@@ -7228,19 +7228,19 @@
         <v>807453</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>776152</v>
+        <v>775399</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>839020</v>
+        <v>837207</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6505381601413438</v>
+        <v>0.6505381601413439</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.625320049814724</v>
+        <v>0.6247137878512175</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6759709176828023</v>
+        <v>0.6745101959115283</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>326974</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>301255</v>
+        <v>299109</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>355026</v>
+        <v>352994</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4680554720745684</v>
+        <v>0.4680554720745685</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4312393767135052</v>
+        <v>0.4281680949251475</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5082123182751001</v>
+        <v>0.5053033445970715</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>610</v>
@@ -7353,19 +7353,19 @@
         <v>383976</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>363589</v>
+        <v>361973</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>407127</v>
+        <v>404551</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5237019176028278</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4958958845249493</v>
+        <v>0.493691814088989</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5552776829370576</v>
+        <v>0.5517642708478623</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>930</v>
@@ -7374,19 +7374,19 @@
         <v>710950</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>674738</v>
+        <v>676738</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>747351</v>
+        <v>746942</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4965513959817122</v>
+        <v>0.4965513959817123</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.471260073879358</v>
+        <v>0.4726567145475473</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5219752622327001</v>
+        <v>0.5216894118260499</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>371605</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>343553</v>
+        <v>345585</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>397324</v>
+        <v>399470</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5319445279254317</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4917876817248999</v>
+        <v>0.4946966554029286</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5687606232864948</v>
+        <v>0.5718319050748526</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>525</v>
@@ -7424,19 +7424,19 @@
         <v>349220</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>326069</v>
+        <v>328645</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>369607</v>
+        <v>371223</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4762980823971721</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4447223170629425</v>
+        <v>0.4482357291521379</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5041041154750509</v>
+        <v>0.5063081859110111</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>868</v>
@@ -7445,19 +7445,19 @@
         <v>720825</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>684424</v>
+        <v>684833</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>757037</v>
+        <v>755037</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5034486040182878</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4780247377673001</v>
+        <v>0.47831058817395</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5287399261206419</v>
+        <v>0.5273432854524528</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>344008</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>320488</v>
+        <v>320155</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>368264</v>
+        <v>367168</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5711666426771302</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5321150901356134</v>
+        <v>0.5315626128878552</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6114392824563673</v>
+        <v>0.6096197746843596</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>645</v>
@@ -7570,19 +7570,19 @@
         <v>387508</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>368813</v>
+        <v>368010</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>406256</v>
+        <v>406763</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6389404203676246</v>
+        <v>0.6389404203676244</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6081158335133645</v>
+        <v>0.6067916094427349</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6698538387722703</v>
+        <v>0.6706889904493679</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1028</v>
@@ -7591,19 +7591,19 @@
         <v>731516</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>699057</v>
+        <v>701786</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>759428</v>
+        <v>758666</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6051711256051511</v>
+        <v>0.6051711256051512</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5783182423205606</v>
+        <v>0.5805765316888654</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6282623983856039</v>
+        <v>0.6276321384580107</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>258282</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>234026</v>
+        <v>235122</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>281802</v>
+        <v>282135</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4288333573228698</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3885607175436326</v>
+        <v>0.3903802253156409</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4678849098643866</v>
+        <v>0.4684373871121447</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>353</v>
@@ -7641,19 +7641,19 @@
         <v>218977</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>200229</v>
+        <v>199722</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>237672</v>
+        <v>238475</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3610595796323756</v>
+        <v>0.3610595796323754</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3301461612277297</v>
+        <v>0.3293110095506319</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3918841664866357</v>
+        <v>0.3932083905572651</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>628</v>
@@ -7662,19 +7662,19 @@
         <v>477259</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>449347</v>
+        <v>450109</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>509718</v>
+        <v>506989</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3948288743948488</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3717376016143964</v>
+        <v>0.3723678615419895</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4216817576794394</v>
+        <v>0.4194234683111347</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>250622</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>232903</v>
+        <v>233750</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>266924</v>
+        <v>266215</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.6232959544402394</v>
+        <v>0.6232959544402397</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.579227929241375</v>
+        <v>0.5813338419182492</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6638379221776229</v>
+        <v>0.6620740968722711</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>629</v>
@@ -7787,19 +7787,19 @@
         <v>332668</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>318305</v>
+        <v>319096</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>344549</v>
+        <v>344352</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7608195909174826</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7279695713850003</v>
+        <v>0.7297787996088917</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7879919927770097</v>
+        <v>0.7875404492272051</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>985</v>
@@ -7808,19 +7808,19 @@
         <v>583291</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>563289</v>
+        <v>562615</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>605801</v>
+        <v>603665</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6949379965950468</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6711074951653637</v>
+        <v>0.6703049383710726</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7217568135678549</v>
+        <v>0.7192126544411728</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>151470</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>135168</v>
+        <v>135877</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>169189</v>
+        <v>168342</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3767040455597605</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3361620778223772</v>
+        <v>0.3379259031277291</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4207720707586249</v>
+        <v>0.4186661580817509</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>195</v>
@@ -7858,19 +7858,19 @@
         <v>104582</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>92701</v>
+        <v>92898</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>118945</v>
+        <v>118154</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2391804090825174</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2120080072229903</v>
+        <v>0.212459550772795</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2720304286149996</v>
+        <v>0.2702212003911086</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>403</v>
@@ -7879,19 +7879,19 @@
         <v>256051</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>233541</v>
+        <v>235677</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>276053</v>
+        <v>276727</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.305062003404953</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2782431864321451</v>
+        <v>0.2807873455588272</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3288925048346363</v>
+        <v>0.3296950616289273</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>246392</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>234421</v>
+        <v>234944</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>257780</v>
+        <v>256742</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8009896229068985</v>
+        <v>0.8009896229068983</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7620756414134751</v>
+        <v>0.7637732721302879</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8380124977022286</v>
+        <v>0.8346380610412638</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>793</v>
@@ -8004,19 +8004,19 @@
         <v>417633</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>408509</v>
+        <v>407712</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>425973</v>
+        <v>425570</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9162252251930844</v>
+        <v>0.9162252251930842</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8962080881981284</v>
+        <v>0.894460452022326</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.934521661022344</v>
+        <v>0.9336390939823688</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1158</v>
@@ -8025,19 +8025,19 @@
         <v>664025</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>649691</v>
+        <v>647048</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>677604</v>
+        <v>678180</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8697932471361711</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8510173860578134</v>
+        <v>0.8475564154902637</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8875809803444211</v>
+        <v>0.8883348881153853</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>61217</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>49829</v>
+        <v>50867</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>73188</v>
+        <v>72665</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1990103770931015</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1619875022977708</v>
+        <v>0.1653619389587363</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2379243585865248</v>
+        <v>0.2362267278697121</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>71</v>
@@ -8075,19 +8075,19 @@
         <v>38186</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>29846</v>
+        <v>30249</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>47310</v>
+        <v>48107</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.08377477480691568</v>
+        <v>0.0837747748069157</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0654783389776555</v>
+        <v>0.06636090601763107</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1037919118018709</v>
+        <v>0.1055395479776738</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>160</v>
@@ -8096,19 +8096,19 @@
         <v>99403</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>85824</v>
+        <v>85248</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>113737</v>
+        <v>116380</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1302067528638288</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1124190196555789</v>
+        <v>0.1116651118846148</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1489826139421865</v>
+        <v>0.1524435845097364</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>1598557</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1535266</v>
+        <v>1533830</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1663171</v>
+        <v>1665119</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4547680896157147</v>
+        <v>0.4547680896157148</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4367627928679932</v>
+        <v>0.4363542408794456</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4731500283535194</v>
+        <v>0.4737041806728017</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3171</v>
@@ -8221,19 +8221,19 @@
         <v>1966976</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1912668</v>
+        <v>1914342</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2022664</v>
+        <v>2028430</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.5293792450541746</v>
+        <v>0.5293792450541744</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5147631133909514</v>
+        <v>0.5152136935730511</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5443667827508027</v>
+        <v>0.5459186385306525</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4907</v>
@@ -8242,19 +8242,19 @@
         <v>3565533</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3482738</v>
+        <v>3474622</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3649231</v>
+        <v>3651505</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.493108237457962</v>
+        <v>0.4931082374579619</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4816579313400714</v>
+        <v>0.4805354574171734</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5046836766909504</v>
+        <v>0.5049980755412307</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>1916546</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1851932</v>
+        <v>1849984</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1979837</v>
+        <v>1981273</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5452319103842851</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5268499716464805</v>
+        <v>0.5262958193271982</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5632372071320069</v>
+        <v>0.5636457591205546</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2160</v>
@@ -8292,19 +8292,19 @@
         <v>1748651</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1692963</v>
+        <v>1687197</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1802959</v>
+        <v>1801285</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4706207549458254</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4556332172491973</v>
+        <v>0.4540813614693476</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4852368866090488</v>
+        <v>0.4847863064269486</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3782</v>
@@ -8313,19 +8313,19 @@
         <v>3665197</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3581499</v>
+        <v>3579225</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3747992</v>
+        <v>3756108</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.506891762542038</v>
+        <v>0.5068917625420379</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4953163233090496</v>
+        <v>0.4950019244587693</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5183420686599286</v>
+        <v>0.5194645425828266</v>
       </c>
     </row>
     <row r="27">
